--- a/artfynd/A 40520-2019.xlsx
+++ b/artfynd/A 40520-2019.xlsx
@@ -788,7 +788,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79790131</v>
+        <v>81134343</v>
       </c>
       <c r="B3" t="n">
         <v>78569</v>
@@ -834,7 +834,7 @@
         <v>6947219.971227366</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2019-08-28</t>
+          <t>2019-08-25</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2019-08-28</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -888,12 +888,12 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Bernhold</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Bernhold, Anders Granér, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>79790115</v>
+        <v>81134326</v>
       </c>
       <c r="B6" t="n">
         <v>78596</v>
@@ -1170,7 +1170,7 @@
         <v>6947294.15244215</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2019-08-28</t>
+          <t>2019-08-25</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2019-08-28</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1224,19 +1224,19 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Bernhold</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Bernhold, Anders Granér, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>79790121</v>
+        <v>81134332</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1282,7 +1282,7 @@
         <v>6947250.084893529</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2019-08-28</t>
+          <t>2019-08-25</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2019-08-28</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1336,12 +1336,12 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Bernhold</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Bernhold, Anders Granér, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>79789797</v>
+        <v>81134009</v>
       </c>
       <c r="B13" t="n">
         <v>77506</v>
@@ -1946,7 +1946,7 @@
         <v>6947048.980633653</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2019-08-29</t>
+          <t>2019-08-25</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2019-08-29</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2000,12 +2000,12 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Bernhold</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Bernhold, Anders Granér, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>79789794</v>
+        <v>81134006</v>
       </c>
       <c r="B28" t="n">
         <v>78569</v>
@@ -3626,7 +3626,7 @@
         <v>6947007.923346936</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2019-08-29</t>
+          <t>2019-08-25</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3660,17 +3660,12 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2019-08-29</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Liten fruktkropp på asp</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3685,12 +3680,12 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Bernhold</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Bernhold, Anders Granér, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
@@ -5265,7 +5260,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>79789795</v>
+        <v>81134007</v>
       </c>
       <c r="B43" t="n">
         <v>78458</v>
@@ -5311,7 +5306,7 @@
         <v>6947007.923346936</v>
       </c>
       <c r="S43" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5335,7 +5330,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2019-08-29</t>
+          <t>2019-08-25</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -5345,7 +5340,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2019-08-29</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -5365,12 +5360,12 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Bernhold</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Bernhold, Anders Granér, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
